--- a/Portfolio/Tableau Synthèse DUVERNAY Morgiane.xlsx
+++ b/Portfolio/Tableau Synthèse DUVERNAY Morgiane.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utilisateur\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107D32CC-C99F-4D3C-A78D-27246B84303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5001F5-27CF-4C47-8C68-3C469A72148C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,12 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS</t>
   </si>
   <si>
-    <t>SESSION 2022</t>
+    <t>SESSION 2025</t>
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>▢ SLAM</t>
-  </si>
-  <si>
-    <t>Adresse URL du portfolio :</t>
   </si>
   <si>
     <t>Compétences mises en œuvre
@@ -147,10 +144,10 @@
     <t>Projet InfoDev (Site web ,Trello)</t>
   </si>
   <si>
-    <t>B.1.3</t>
-  </si>
-  <si>
-    <t>B.1.4.3</t>
+    <t>B.1.3,1</t>
+  </si>
+  <si>
+    <t>B.1.4.2</t>
   </si>
   <si>
     <t xml:space="preserve">Veille technologique </t>
@@ -165,6 +162,12 @@
     <t>B1.6.1</t>
   </si>
   <si>
+    <t xml:space="preserve">AP Firewall </t>
+  </si>
+  <si>
+    <t>B1.2.2</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de première année</t>
   </si>
   <si>
@@ -189,43 +192,37 @@
     <t>B.1.1.3</t>
   </si>
   <si>
+    <t>Mis en place d'un serveur Apache dans une machine virtuel</t>
+  </si>
+  <si>
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
     <t>Stage 2ème année</t>
   </si>
   <si>
+    <t>Analyser les besoins de client</t>
+  </si>
+  <si>
+    <t>B.1.2.1</t>
+  </si>
+  <si>
+    <t>Installer le NAS Chez le client</t>
+  </si>
+  <si>
+    <t>Mis en service du NAS</t>
+  </si>
+  <si>
+    <t>Transfert de données pour la sauvegarde</t>
+  </si>
+  <si>
+    <t>B.1.1.6</t>
+  </si>
+  <si>
     <t>trssssssssssssssssssssss&amp;yhnuyhnè</t>
   </si>
   <si>
-    <t xml:space="preserve">AP Firewall </t>
-  </si>
-  <si>
-    <t>B.1.2</t>
-  </si>
-  <si>
-    <t>Installer le NAS Chez le client</t>
-  </si>
-  <si>
-    <t>Mis en service du NAS</t>
-  </si>
-  <si>
-    <t>Transfert de données pour la sauvegarde</t>
-  </si>
-  <si>
-    <t>B.1.5</t>
-  </si>
-  <si>
-    <t>Mis en place d'un serveur Apache dans une machine virtuel</t>
-  </si>
-  <si>
-    <t>Analyser les besoins de client</t>
-  </si>
-  <si>
-    <t>B.1.1.6</t>
-  </si>
-  <si>
-    <t>B1.2.2</t>
+    <t>Adresse URL du portfolio : https://morgianeduvernay.github.io/Morgiane-DUVERNAY/Portfolio/Portfolio.html</t>
   </si>
 </sst>
 </file>
@@ -777,15 +774,39 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -817,30 +838,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:AQ124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1168,56 +1165,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31" t="s">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:43" ht="40.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="49" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="50"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="37"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="7" t="s">
         <v>6</v>
       </c>
@@ -1229,63 +1226,63 @@
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="50"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="B6" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="4" t="s">
+    </row>
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="39"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="18" t="s">
+      <c r="D7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F7" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="14" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>23</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -1324,16 +1321,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
+      <c r="A8" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="15"/>
@@ -1419,7 +1416,7 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="9"/>
@@ -1428,7 +1425,7 @@
       <c r="F10" s="28"/>
       <c r="G10" s="28"/>
       <c r="H10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10"/>
       <c r="J10"/>
@@ -1468,16 +1465,16 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="9"/>
       <c r="D11" s="22"/>
       <c r="E11" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>29</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>30</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="27"/>
@@ -1519,7 +1516,7 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="15"/>
@@ -1528,7 +1525,7 @@
       <c r="F12" s="28"/>
       <c r="G12" s="28"/>
       <c r="H12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1568,7 +1565,7 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="15"/>
@@ -1577,7 +1574,7 @@
       <c r="F13" s="22"/>
       <c r="G13" s="28"/>
       <c r="H13" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1617,12 +1614,12 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="15"/>
       <c r="D14" s="22" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E14" s="28"/>
       <c r="F14" s="28"/>
@@ -1845,16 +1842,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="37"/>
+      <c r="A19" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="45"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1893,7 +1890,7 @@
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="10"/>
@@ -1940,7 +1937,7 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="10"/>
@@ -1948,7 +1945,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H21" s="11"/>
       <c r="I21"/>
@@ -1989,7 +1986,7 @@
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="10"/>
@@ -1997,7 +1994,7 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="11"/>
       <c r="I22"/>
@@ -2038,11 +2035,11 @@
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -2087,7 +2084,7 @@
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="10"/>
@@ -2095,7 +2092,7 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="22" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H24" s="11"/>
       <c r="I24"/>
@@ -2180,16 +2177,16 @@
       <c r="AQ25"/>
     </row>
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="A26" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2228,7 +2225,7 @@
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="22"/>
@@ -2275,12 +2272,12 @@
     </row>
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="24" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="22"/>
@@ -2332,7 +2329,7 @@
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29"/>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="22"/>
@@ -2381,7 +2378,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30"/>
@@ -2422,11 +2419,11 @@
     </row>
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="10"/>
@@ -2471,11 +2468,11 @@
     </row>
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="10"/>
@@ -2574,16 +2571,11 @@
     </row>
     <row r="124" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G124" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2591,6 +2583,11 @@
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2610,23 +2607,104 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D9FBDD8C35121469990A8F3D44ADED7" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="bf2f4abd3b0c9e576421fd76ac7c7e36">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9b3613ba4871b6d4221e6a6d8c4f7bd5">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010026CFFAA8BAA0864BA96211B9CFD960B8" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="7f4bffd4ebff60f9a6700db01bbd4918">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d5468233-af9c-42fc-bb8c-aa1f9ac553be" xmlns:ns3="e746c093-1525-408e-86ad-0c488634d20b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b797f7e3ae742b2075b7eeaf2309cc0d" ns2:_="" ns3:_="">
+    <xsd:import namespace="d5468233-af9c-42fc-bb8c-aa1f9ac553be"/>
+    <xsd:import namespace="e746c093-1525-408e-86ad-0c488634d20b"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:ReferenceId" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d5468233-af9c-42fc-bb8c-aa1f9ac553be" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="ReferenceId" ma:index="8" nillable="true" ma:displayName="ReferenceId" ma:indexed="true" ma:internalName="ReferenceId">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="10" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="11" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Balises d’images" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0a4a5397-caa8-4df3-b284-6b3a282f0fb2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e746c093-1525-408e-86ad-0c488634d20b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{2360ca68-68a7-4bbb-addd-1e6f24213dd0}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="e746c093-1525-408e-86ad-0c488634d20b">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
@@ -2729,6 +2807,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="d5468233-af9c-42fc-bb8c-aa1f9ac553be" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d5468233-af9c-42fc-bb8c-aa1f9ac553be">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e746c093-1525-408e-86ad-0c488634d20b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89043933-6526-4BB0-BE84-4F8A6FC88E33}">
   <ds:schemaRefs>
@@ -2738,26 +2828,31 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27966497-5452-4197-A9FB-E19F29F0F600}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d5468233-af9c-42fc-bb8c-aa1f9ac553be"/>
+    <ds:schemaRef ds:uri="e746c093-1525-408e-86ad-0c488634d20b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F55A68E-7560-4C3D-AC6F-C1D5B7BE534F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C67F069-A50D-423D-9C29-FB1CD4A111EC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d5468233-af9c-42fc-bb8c-aa1f9ac553be"/>
+    <ds:schemaRef ds:uri="e746c093-1525-408e-86ad-0c488634d20b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>